--- a/state-machine_T2S.xlsx
+++ b/state-machine_T2S.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amano\Devel\DataFederation\DimensionDefinitionLanguage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04D5F13-545B-4599-9F5C-D9E94BF4D9B6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2100AFF6-8A0F-4A3A-A009-5712E6B7424B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18585" windowHeight="10605" activeTab="1" xr2:uid="{CD835FDA-50C7-41B6-968C-35B56F1F7D99}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18585" windowHeight="10605" activeTab="2" xr2:uid="{CD835FDA-50C7-41B6-968C-35B56F1F7D99}"/>
   </bookViews>
   <sheets>
     <sheet name="T2Sコンバータ(ex.01)" sheetId="10" r:id="rId1"/>
     <sheet name="T2Sコンバータ(ex.02)" sheetId="9" r:id="rId2"/>
+    <sheet name="T2Sコンバータ(ex.03)" sheetId="11" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="81">
   <si>
     <t>LIST_LV</t>
     <phoneticPr fontId="1"/>
@@ -371,6 +372,22 @@
   </si>
   <si>
     <t>PRINT_TRIG_ACCがTRUEかつPRINT_TRIGがTRUE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$7(</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>($7,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$8)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1711,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417BAF8A-04D3-42B3-8B91-D3A3E24E9EDE}">
   <dimension ref="A1:AI34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2775,4 +2792,1209 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44EC84A-249E-4A48-B267-C09774952AF4}">
+  <dimension ref="A1:AM34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="AG35" sqref="AG35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="13.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.125" style="3" customWidth="1"/>
+    <col min="5" max="12" width="7.875" style="3" customWidth="1"/>
+    <col min="13" max="15" width="10.875" style="3" customWidth="1"/>
+    <col min="16" max="24" width="7.375" style="3" customWidth="1"/>
+    <col min="25" max="33" width="10.875" style="3" customWidth="1"/>
+    <col min="34" max="34" width="7.875" style="3" customWidth="1"/>
+    <col min="35" max="37" width="3.25" style="3" customWidth="1"/>
+    <col min="38" max="38" width="10.125" style="4" customWidth="1"/>
+    <col min="39" max="39" width="21.375" style="3" customWidth="1"/>
+    <col min="40" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL3" s="8"/>
+    </row>
+    <row r="5" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL5" s="8"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>3</v>
+      </c>
+      <c r="J6" s="3">
+        <v>4</v>
+      </c>
+      <c r="K6" s="3">
+        <v>5</v>
+      </c>
+      <c r="L6" s="3">
+        <v>6</v>
+      </c>
+      <c r="M6" s="3">
+        <v>7</v>
+      </c>
+      <c r="N6" s="3">
+        <v>8</v>
+      </c>
+      <c r="O6" s="3">
+        <v>9</v>
+      </c>
+      <c r="P6" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>11</v>
+      </c>
+      <c r="R6" s="3">
+        <v>12</v>
+      </c>
+      <c r="S6" s="3">
+        <v>13</v>
+      </c>
+      <c r="T6" s="3">
+        <v>14</v>
+      </c>
+      <c r="U6" s="3">
+        <v>15</v>
+      </c>
+      <c r="V6" s="3">
+        <v>16</v>
+      </c>
+      <c r="W6" s="3">
+        <v>17</v>
+      </c>
+      <c r="X6" s="3">
+        <v>18</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>19</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>21</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>22</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>23</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>24</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>25</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>26</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>27</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="C7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM9" s="5"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="C10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="C11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="C12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM13" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:39" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL17" s="8"/>
+    </row>
+    <row r="18" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="C18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="AH18" s="9"/>
+      <c r="AM18" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="D19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM19" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="D20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20" s="9"/>
+      <c r="O20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH20" s="9"/>
+    </row>
+    <row r="22" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="D22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM22" s="5"/>
+    </row>
+    <row r="23" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="D23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM23" s="5"/>
+    </row>
+    <row r="24" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="D24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="X24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM24" s="5"/>
+    </row>
+    <row r="25" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="D25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N25" s="9"/>
+    </row>
+    <row r="26" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="C26" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="D28" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:39" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL30" s="8"/>
+    </row>
+    <row r="31" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="C31" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="C32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="X32" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD32" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="3:39" x14ac:dyDescent="0.4">
+      <c r="C34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM34" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/state-machine_T2S.xlsx
+++ b/state-machine_T2S.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amano\Devel\DataFederation\DimensionDefinitionLanguage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2100AFF6-8A0F-4A3A-A009-5712E6B7424B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17CF261-0CFC-45F9-8177-71FCA4626CA9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18585" windowHeight="10605" activeTab="2" xr2:uid="{CD835FDA-50C7-41B6-968C-35B56F1F7D99}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="109">
   <si>
     <t>LIST_LV</t>
     <phoneticPr fontId="1"/>
@@ -375,19 +375,158 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>$7(</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>($7,</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>$8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>$8)</t>
+    <t>LIST_LV==1&amp;&amp;c=="," OR LIST_LV!=1&amp;&amp;c=="(" OR c==")"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>適用</t>
+    <rPh sb="0" eb="2">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>")"でまっちする、LIST_LVで調整</t>
+    <rPh sb="18" eb="20">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"("でマッチする、EMP_BODYで調整</t>
+    <rPh sb="19" eb="21">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トリガキーとなるchar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$6(</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$6($</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$6($7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$6($7)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>($6,$7)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>)\n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>charと組み合わせる条件</t>
+    <rPh sb="5" eb="6">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LIST_LV&gt;0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$6($7(</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$6($7($</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$6($7($8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$6($7($8)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>($6,($7,$8)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BRK_S_POSs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>argが何個かで場合分け</t>
+    <rPh sb="4" eb="6">
+      <t>ナンコ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ワ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1726,10 +1865,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417BAF8A-04D3-42B3-8B91-D3A3E24E9EDE}">
-  <dimension ref="A1:AI34"/>
+  <dimension ref="A1:AI35"/>
   <sheetViews>
     <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1937,6 +2076,9 @@
       <c r="AC6" s="3">
         <v>23</v>
       </c>
+      <c r="AD6" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.4">
       <c r="C7" s="3" t="s">
@@ -2020,6 +2162,9 @@
       <c r="AC7" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="AD7" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.4">
       <c r="C9" s="3" t="s">
@@ -2103,6 +2248,9 @@
       <c r="AC9" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="AD9" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="AI9" s="5"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.4">
@@ -2192,598 +2340,671 @@
         <v>63</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>29</v>
+        <v>82</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="AI12" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="C13" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>82</v>
+      </c>
       <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="K13" s="9" t="s">
+        <v>82</v>
+      </c>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
-      <c r="O13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="V13" s="9" t="s">
-        <v>31</v>
+      <c r="O13" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
-      <c r="Y13" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y13" s="9"/>
       <c r="AB13" s="3" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="AC13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI13" s="5" t="s">
-        <v>67</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI13" s="5"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.4">
       <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="AB14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI14" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:35" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="6" t="s">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="C16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="2:35" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="AH17" s="8"/>
-    </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.4">
-      <c r="C18" s="3" t="s">
+      <c r="AH18" s="8"/>
+    </row>
+    <row r="19" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="C19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="N18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="AD18" s="9"/>
-      <c r="AI18" s="3" t="s">
+      <c r="N19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AI19" s="3" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.4">
-      <c r="D19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI19" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="20" spans="2:35" x14ac:dyDescent="0.4">
       <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI20" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="D21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N20" s="9"/>
-      <c r="O20" s="3" t="s">
+      <c r="N21" s="9"/>
+      <c r="O21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="V20" s="3" t="s">
+      <c r="V21" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Y20" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD20" s="9"/>
-    </row>
-    <row r="22" spans="2:35" x14ac:dyDescent="0.4">
-      <c r="D22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI22" s="5"/>
+      <c r="Y21" s="9"/>
+      <c r="AB21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD21" s="9"/>
     </row>
     <row r="23" spans="2:35" x14ac:dyDescent="0.4">
       <c r="D23" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>35</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="V23" s="3" t="s">
         <v>35</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y23" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="AA23" s="3" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="AB23" s="3" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="AC23" s="3" t="s">
-        <v>35</v>
+        <v>86</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="AI23" s="5"/>
     </row>
     <row r="24" spans="2:35" x14ac:dyDescent="0.4">
       <c r="D24" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="X24" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y24" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="Z24" s="3" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="AA24" s="3" t="s">
-        <v>65</v>
+        <v>90</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="AI24" s="5"/>
     </row>
     <row r="25" spans="2:35" x14ac:dyDescent="0.4">
       <c r="D25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="X25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y25" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI25" s="5"/>
+    </row>
+    <row r="26" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="D26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N25" s="9"/>
-    </row>
-    <row r="26" spans="2:35" x14ac:dyDescent="0.4">
-      <c r="C26" s="3" t="s">
+      <c r="N26" s="9"/>
+    </row>
+    <row r="27" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="C27" s="3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="2:35" x14ac:dyDescent="0.4">
-      <c r="D27" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="28" spans="2:35" x14ac:dyDescent="0.4">
       <c r="D28" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="D29" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:35" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="6" t="s">
+    <row r="31" spans="2:35" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AH30" s="8"/>
-    </row>
-    <row r="31" spans="2:35" x14ac:dyDescent="0.4">
-      <c r="C31" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="AH31" s="8"/>
     </row>
     <row r="32" spans="2:35" x14ac:dyDescent="0.4">
       <c r="C32" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="3:35" x14ac:dyDescent="0.4">
+      <c r="C33" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" s="3" t="s">
+      <c r="F33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I33" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J33" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="K33" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="L32" s="9" t="s">
+      <c r="L33" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="M32" s="9" t="s">
+      <c r="M33" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="N32" s="9" t="s">
+      <c r="N33" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q32" s="3" t="s">
+      <c r="P33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q33" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="R32" s="3" t="s">
+      <c r="R33" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="S32" s="3" t="s">
+      <c r="S33" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="T32" s="3" t="s">
+      <c r="T33" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="U32" s="3" t="s">
+      <c r="U33" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="X32" s="9" t="s">
+      <c r="V33" s="9"/>
+      <c r="W33" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="X33" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA32" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="3:35" x14ac:dyDescent="0.4">
-      <c r="C34" s="3" t="s">
+      <c r="Y33" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z33" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA33" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC33" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD33" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="3:35" x14ac:dyDescent="0.4">
+      <c r="C35" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34" s="3" t="s">
+      <c r="E35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="L35" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="V34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI34" s="3" t="s">
+      <c r="M35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI35" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2796,10 +3017,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44EC84A-249E-4A48-B267-C09774952AF4}">
-  <dimension ref="A1:AM34"/>
+  <dimension ref="A1:AM36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="AG35" sqref="AG35"/>
+      <selection activeCell="AE18" sqref="AE18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2811,7 +3032,9 @@
     <col min="5" max="12" width="7.875" style="3" customWidth="1"/>
     <col min="13" max="15" width="10.875" style="3" customWidth="1"/>
     <col min="16" max="24" width="7.375" style="3" customWidth="1"/>
-    <col min="25" max="33" width="10.875" style="3" customWidth="1"/>
+    <col min="25" max="30" width="10.875" style="3" customWidth="1"/>
+    <col min="31" max="31" width="13" style="3" customWidth="1"/>
+    <col min="32" max="33" width="10.875" style="3" customWidth="1"/>
     <col min="34" max="34" width="7.875" style="3" customWidth="1"/>
     <col min="35" max="37" width="3.25" style="3" customWidth="1"/>
     <col min="38" max="38" width="10.125" style="4" customWidth="1"/>
@@ -3129,6 +3352,9 @@
       <c r="AG7" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="AH7" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.4">
       <c r="C9" s="3" t="s">
@@ -3224,6 +3450,9 @@
       <c r="AG9" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="AH9" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="AM9" s="5"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.4">
@@ -3310,685 +3539,795 @@
         <v>62</v>
       </c>
       <c r="Y12" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE12" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
+      </c>
+      <c r="Z12" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA12" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB12" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC12" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD12" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE12" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>29</v>
+        <v>82</v>
+      </c>
+      <c r="AH12" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="AM12" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="C13" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>82</v>
+      </c>
       <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="K13" s="9" t="s">
+        <v>82</v>
+      </c>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
-      <c r="O13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="V13" s="9" t="s">
-        <v>31</v>
+      <c r="O13" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
-      <c r="Y13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB13" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y13" s="9"/>
       <c r="AE13" s="3" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="AF13" s="3" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM13" s="5"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="D14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="AE14" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF14" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG14" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM14" s="5"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="C15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="AE15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM15" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="C14" s="3" t="s">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:39" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="6" t="s">
+    <row r="17" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="D17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE17" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="2:39" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="AL17" s="8"/>
-    </row>
-    <row r="18" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="C18" s="3" t="s">
+      <c r="AL19" s="8"/>
+    </row>
+    <row r="20" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="C20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="N18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="AH18" s="9"/>
-      <c r="AM18" s="3" t="s">
+      <c r="N20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="AM20" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="D19" s="3" t="s">
+    <row r="21" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM19" s="5" t="s">
+      <c r="E21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM21" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="20" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="D20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N20" s="9"/>
-      <c r="O20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y20" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB20" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH20" s="9"/>
     </row>
     <row r="22" spans="2:39" x14ac:dyDescent="0.4">
       <c r="D22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="N22" s="9"/>
       <c r="O22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD22" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="Y22" s="9"/>
       <c r="AE22" s="3" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="AF22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM22" s="5"/>
-    </row>
-    <row r="23" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="D23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="X23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM23" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="AH22" s="9" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="24" spans="2:39" x14ac:dyDescent="0.4">
       <c r="D24" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>53</v>
+        <v>35</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="X24" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y24" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="Z24" s="3" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="AA24" s="3" t="s">
-        <v>65</v>
+        <v>86</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="AC24" s="3" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="AD24" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
+      </c>
+      <c r="AE24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH24" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="AM24" s="5"/>
     </row>
     <row r="25" spans="2:39" x14ac:dyDescent="0.4">
       <c r="D25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N25" s="9"/>
+        <v>49</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD25" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM25" s="5"/>
     </row>
     <row r="26" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="C26" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="X26" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y26" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z26" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA26" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB26" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC26" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD26" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM26" s="5"/>
     </row>
     <row r="27" spans="2:39" x14ac:dyDescent="0.4">
       <c r="D27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N27" s="9"/>
+    </row>
+    <row r="28" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="C28" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="D28" s="3" t="s">
+    <row r="30" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="D30" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:39" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="6" t="s">
+    <row r="31" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="D31" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE31" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="2:39" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AL30" s="8"/>
-    </row>
-    <row r="31" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="C31" s="3" t="s">
+      <c r="AL32" s="8"/>
+    </row>
+    <row r="33" spans="3:39" x14ac:dyDescent="0.4">
+      <c r="C33" s="3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="C32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L32" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N32" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="U32" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="X32" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA32" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD32" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="34" spans="3:39" x14ac:dyDescent="0.4">
       <c r="C34" s="3" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="F34" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="X34" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y34" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z34" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA34" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB34" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC34" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD34" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG34" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="3:39" x14ac:dyDescent="0.4">
+      <c r="C36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="K36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="L36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="V34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM34" s="3" t="s">
+      <c r="M36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM36" s="3" t="s">
         <v>48</v>
       </c>
     </row>

--- a/state-machine_T2S.xlsx
+++ b/state-machine_T2S.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amano\Devel\DataFederation\DimensionDefinitionLanguage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17CF261-0CFC-45F9-8177-71FCA4626CA9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AF64FE-50C9-4C06-99C8-8804C914E450}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18585" windowHeight="10605" activeTab="2" xr2:uid="{CD835FDA-50C7-41B6-968C-35B56F1F7D99}"/>
   </bookViews>
@@ -1868,7 +1868,7 @@
   <dimension ref="A1:AI35"/>
   <sheetViews>
     <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/state-machine_T2S.xlsx
+++ b/state-machine_T2S.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amano\Devel\DataFederation\DimensionDefinitionLanguage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AF64FE-50C9-4C06-99C8-8804C914E450}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D9367E-4590-40CE-A2B4-C73EAE289753}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18585" windowHeight="10605" activeTab="2" xr2:uid="{CD835FDA-50C7-41B6-968C-35B56F1F7D99}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18585" windowHeight="10605" activeTab="4" xr2:uid="{CD835FDA-50C7-41B6-968C-35B56F1F7D99}"/>
   </bookViews>
   <sheets>
     <sheet name="T2Sコンバータ(ex.01)" sheetId="10" r:id="rId1"/>
     <sheet name="T2Sコンバータ(ex.02)" sheetId="9" r:id="rId2"/>
     <sheet name="T2Sコンバータ(ex.03)" sheetId="11" r:id="rId3"/>
+    <sheet name="T2Sコンバータ(ex.04)" sheetId="12" r:id="rId4"/>
+    <sheet name="T2Sコンバータ(ex.04) (memo)" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="132">
   <si>
     <t>LIST_LV</t>
     <phoneticPr fontId="1"/>
@@ -527,6 +529,87 @@
     <rPh sb="10" eb="11">
       <t>ワ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>($,((($)),$))</t>
+  </si>
+  <si>
+    <t>OUTPUT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>($</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>((</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>($</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -619,7 +702,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -648,6 +731,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3019,8 +3105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44EC84A-249E-4A48-B267-C09774952AF4}">
   <dimension ref="A1:AM36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="AE18" sqref="AE18"/>
+    <sheetView zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4336,4 +4422,675 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEB0F53-41B1-430B-9D22-879D8F2A5009}">
+  <dimension ref="A1:AE36"/>
+  <sheetViews>
+    <sheetView zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="13.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.125" style="3" customWidth="1"/>
+    <col min="5" max="19" width="6.5" style="3" customWidth="1"/>
+    <col min="20" max="22" width="3.25" style="3" customWidth="1"/>
+    <col min="23" max="23" width="10.125" style="4" customWidth="1"/>
+    <col min="24" max="24" width="21.375" style="3" customWidth="1"/>
+    <col min="25" max="30" width="9" style="3"/>
+    <col min="31" max="31" width="13.25" style="3" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="W3" s="8"/>
+      <c r="AE3" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5" s="8"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="C7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="X9" s="5"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="C10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="C11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="C12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="X12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="D13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="X13" s="5"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="D14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="X14" s="5"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="C15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="X15" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="D17" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="W19" s="8"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="C20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O20" s="9"/>
+      <c r="X20" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="D22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="D24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X24" s="5"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="D25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X25" s="5"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="D26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="X26" s="5"/>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="D27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O27" s="9"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="C28" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="D30" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="D31" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="W32" s="8"/>
+    </row>
+    <row r="33" spans="3:24" x14ac:dyDescent="0.4">
+      <c r="C33" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="3:24" x14ac:dyDescent="0.4">
+      <c r="C34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+    </row>
+    <row r="36" spans="3:24" x14ac:dyDescent="0.4">
+      <c r="C36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="X36" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D47B06-64D1-4118-A869-BB98E03EF567}">
+  <dimension ref="A1:AE11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:Q1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="13.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="3" customWidth="1"/>
+    <col min="6" max="17" width="7.125" style="3" customWidth="1"/>
+    <col min="18" max="19" width="7.375" style="3" customWidth="1"/>
+    <col min="20" max="22" width="3.25" style="3" customWidth="1"/>
+    <col min="23" max="23" width="10.125" style="4" customWidth="1"/>
+    <col min="24" max="24" width="21.375" style="3" customWidth="1"/>
+    <col min="25" max="30" width="9" style="3"/>
+    <col min="31" max="31" width="13.25" style="3" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="W3" s="8"/>
+      <c r="AE3" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="P5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="F7" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="H8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="F9" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="H10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="F11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE11" s="10" t="str">
+        <f>CONCATENATE(F11,G11,H11,I11,J11,K11,L11,M11,N11,O11,P11)</f>
+        <v>($,((($)),($))</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>